--- a/data/GVIG_ClueLayout.xlsx
+++ b/data/GVIG_ClueLayout.xlsx
@@ -568,7 +568,7 @@
   <dimension ref="A1:AB26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/GVIG_ClueLayout.xlsx
+++ b/data/GVIG_ClueLayout.xlsx
@@ -568,7 +568,7 @@
   <dimension ref="A1:AB26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/GVIG_ClueLayout.xlsx
+++ b/data/GVIG_ClueLayout.xlsx
@@ -568,7 +568,7 @@
   <dimension ref="A1:AB26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
